--- a/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.0277096617726453</v>
+        <v>-2.027709678008959</v>
       </c>
       <c r="C2">
-        <v>-4.4839668260225087</v>
+        <v>-4.4839667993468568</v>
       </c>
       <c r="D2">
-        <v>-8.1168586069738762</v>
+        <v>-8.1168583204219829</v>
       </c>
       <c r="E2">
-        <v>-4.4483388732908091</v>
+        <v>-4.4483387461896866</v>
       </c>
       <c r="F2">
-        <v>-14.864818216063133</v>
+        <v>-14.864818207238917</v>
       </c>
       <c r="G2">
-        <v>6.6293870460525595</v>
+        <v>6.6293870458924458</v>
       </c>
       <c r="H2">
-        <v>-5.0145077956602417</v>
+        <v>-5.0145078255622737</v>
       </c>
       <c r="I2">
-        <v>5.1566304321040493</v>
+        <v>5.156630439689966</v>
       </c>
       <c r="J2">
-        <v>4.0070818275295492</v>
+        <v>4.0070818065649103</v>
       </c>
       <c r="K2">
-        <v>-14.804957123774628</v>
+        <v>-14.804957158200224</v>
       </c>
       <c r="L2">
-        <v>7.8441145564899077</v>
+        <v>7.8441145942338935</v>
       </c>
       <c r="M2">
-        <v>-1.9864916273402473</v>
+        <v>-1.986491617279313</v>
       </c>
       <c r="N2">
-        <v>-0.19151931492969285</v>
+        <v>-0.19151930046109453</v>
       </c>
       <c r="O2">
-        <v>8.7781308030536458</v>
+        <v>8.7781308245004244</v>
       </c>
       <c r="P2">
-        <v>-1.4176621281315318</v>
+        <v>-1.4176620932764745</v>
       </c>
       <c r="Q2">
-        <v>-3.1482107568238811</v>
+        <v>-3.1482107499396483</v>
       </c>
       <c r="R2">
-        <v>-0.89241211417297273</v>
+        <v>-0.89241209100717223</v>
       </c>
       <c r="S2">
-        <v>5.8044436618798256</v>
+        <v>5.8044436631159737</v>
       </c>
       <c r="T2">
-        <v>-5.6796527792429394</v>
+        <v>-5.6796527636998695</v>
       </c>
       <c r="U2">
-        <v>6.7523691154508141</v>
+        <v>6.7523690875404094</v>
       </c>
       <c r="V2">
-        <v>-7.1147045289458006</v>
+        <v>-7.1147045356777596</v>
       </c>
       <c r="W2">
-        <v>5.9531081118364124</v>
+        <v>5.953108137050994</v>
       </c>
       <c r="X2">
-        <v>-2.0722049105303983</v>
+        <v>-2.0722049137895922</v>
       </c>
       <c r="Y2">
-        <v>-2.1885939879378165</v>
+        <v>-2.188593991114526</v>
       </c>
       <c r="Z2">
-        <v>-20.999676657233959</v>
+        <v>-20.999676658685594</v>
       </c>
       <c r="AA2">
-        <v>7.8358146487743721</v>
+        <v>7.8358146018041142</v>
       </c>
       <c r="AB2">
-        <v>-5.1463130141035078</v>
+        <v>-5.1463130064994758</v>
       </c>
       <c r="AC2">
-        <v>5.1358831788250772</v>
+        <v>5.1358831913570011</v>
       </c>
       <c r="AD2">
-        <v>-7.0827388052589511</v>
+        <v>-7.0827388155794697</v>
       </c>
       <c r="AE2">
-        <v>-24.807381931494348</v>
+        <v>-24.807381911678892</v>
       </c>
       <c r="AF2">
-        <v>-2.6311456279220198</v>
+        <v>-2.6311456095102073</v>
       </c>
       <c r="AG2">
-        <v>0.73944747307109671</v>
+        <v>0.73944757127741034</v>
       </c>
       <c r="AH2">
-        <v>-2.9653198344018707</v>
+        <v>-2.965319835623224</v>
       </c>
       <c r="AI2">
-        <v>53.903893617262725</v>
+        <v>53.90389356637553</v>
       </c>
       <c r="AJ2">
-        <v>-4.2496079711337131</v>
+        <v>-4.2496079461796521</v>
       </c>
       <c r="AK2">
-        <v>-2.030945883247556</v>
+        <v>-2.030945934204297</v>
       </c>
       <c r="AL2">
-        <v>-8.1521570443860121</v>
+        <v>-8.1521569912617728</v>
       </c>
       <c r="AM2">
-        <v>-4.3779574610388811E-2</v>
+        <v>-4.377956790730337E-2</v>
       </c>
       <c r="AN2">
-        <v>-0.18850373771383022</v>
+        <v>-0.18850371322241191</v>
       </c>
       <c r="AO2">
-        <v>-5.6861733024994612</v>
+        <v>-5.6861732620047603</v>
       </c>
       <c r="AP2">
-        <v>0.93098977100754077</v>
+        <v>0.93098978667687615</v>
       </c>
       <c r="AQ2">
-        <v>-1.4356197015600713</v>
+        <v>-1.4356196769483194</v>
       </c>
       <c r="AR2">
-        <v>0.54902199018453146</v>
+        <v>0.5490219933694277</v>
       </c>
       <c r="AS2">
-        <v>-4.4521998260371554</v>
+        <v>-4.4521997824188073</v>
       </c>
       <c r="AT2">
-        <v>-2.4859596024943738</v>
+        <v>-2.4859595777304508</v>
       </c>
       <c r="AU2">
-        <v>-0.98953712362582402</v>
+        <v>-0.98953710587490629</v>
       </c>
       <c r="AV2">
-        <v>-4.2858088802101779</v>
+        <v>-4.2858088616763421</v>
       </c>
       <c r="AW2">
-        <v>-2.8776685067337371</v>
+        <v>-2.8776684796353131</v>
       </c>
       <c r="AX2">
-        <v>-4.9955990367572483</v>
+        <v>-4.9955989626916679</v>
       </c>
       <c r="AY2">
-        <v>0.95148913832920778</v>
+        <v>0.95148915927305222</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>2.9052278622843382</v>
       </c>
       <c r="C3">
-        <v>-0.51071513668484148</v>
+        <v>-0.51071512467278191</v>
       </c>
       <c r="D3">
-        <v>-0.58440280099895159</v>
+        <v>-0.5844027562283497</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036969</v>
+        <v>-11.493442252988849</v>
       </c>
       <c r="F3">
-        <v>5.8723185621236462</v>
+        <v>5.8723185207638293</v>
       </c>
       <c r="G3">
-        <v>0.4980576290326344</v>
+        <v>0.49805760935366883</v>
       </c>
       <c r="H3">
-        <v>2.2629999281006365</v>
+        <v>2.262999970771074</v>
       </c>
       <c r="I3">
-        <v>0.92891164735861309</v>
+        <v>0.92891162416651218</v>
       </c>
       <c r="J3">
-        <v>-0.71816924718279207</v>
+        <v>-0.7181692404707718</v>
       </c>
       <c r="K3">
-        <v>34.572189535783984</v>
+        <v>34.572189538676021</v>
       </c>
       <c r="L3">
-        <v>29.750211330025916</v>
+        <v>29.750211327703834</v>
       </c>
       <c r="M3">
-        <v>-4.5802667851162919</v>
+        <v>-4.5801996501428892</v>
       </c>
       <c r="N3">
-        <v>-0.36339123567103143</v>
+        <v>-0.3633912371617965</v>
       </c>
       <c r="O3">
-        <v>2.7472038654160555</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="P3">
-        <v>-18.607663159371285</v>
+        <v>-18.607663134438322</v>
       </c>
       <c r="Q3">
-        <v>-3.486066575273413</v>
+        <v>-3.4860665480440054</v>
       </c>
       <c r="R3">
-        <v>2.1270239704888754</v>
+        <v>2.1270239776462505</v>
       </c>
       <c r="S3">
-        <v>6.467208730090988</v>
+        <v>6.4672087326693664</v>
       </c>
       <c r="T3">
-        <v>6.4569387129084861</v>
+        <v>6.4569387024580527</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536734759</v>
+        <v>-5.6227008536989036</v>
       </c>
       <c r="V3">
-        <v>5.5386459589203438</v>
+        <v>5.5386459624482924</v>
       </c>
       <c r="W3">
-        <v>0.796773195115971</v>
+        <v>0.79677316717642921</v>
       </c>
       <c r="X3">
-        <v>8.4651249074665706</v>
+        <v>8.4651248821622165</v>
       </c>
       <c r="Y3">
-        <v>4.6158483471302949</v>
+        <v>4.6158483705766393</v>
       </c>
       <c r="Z3">
-        <v>-5.0173141678262265</v>
+        <v>-5.0173141458916382</v>
       </c>
       <c r="AA3">
-        <v>-0.30452189699468996</v>
+        <v>-0.30452189407271935</v>
       </c>
       <c r="AB3">
-        <v>-4.6717266224639022</v>
+        <v>-4.6717266503520349</v>
       </c>
       <c r="AC3">
-        <v>-0.73487167356443261</v>
+        <v>-0.73487168271150305</v>
       </c>
       <c r="AD3">
-        <v>-9.2467820923927189</v>
+        <v>-9.2467821396893353</v>
       </c>
       <c r="AE3">
-        <v>-5.0577051111928819</v>
+        <v>-5.0577051535782722</v>
       </c>
       <c r="AF3">
-        <v>-0.59148028652731977</v>
+        <v>-0.59148028139708653</v>
       </c>
       <c r="AG3">
-        <v>11.177787742414704</v>
+        <v>11.177787461230674</v>
       </c>
       <c r="AH3">
-        <v>4.4331037511409122</v>
+        <v>4.4331037864578882</v>
       </c>
       <c r="AI3">
-        <v>-2.4569889466824359</v>
+        <v>-2.4569889856515497</v>
       </c>
       <c r="AJ3">
-        <v>-0.787864923185568</v>
+        <v>-0.78786490726066249</v>
       </c>
       <c r="AK3">
-        <v>34.707128302457555</v>
+        <v>34.707128347001358</v>
       </c>
       <c r="AL3">
-        <v>-2.1530409527979093</v>
+        <v>-2.1530409195327174</v>
       </c>
       <c r="AM3">
-        <v>-1.1375014736074738</v>
+        <v>-1.1375014385226299</v>
       </c>
       <c r="AN3">
-        <v>-7.8832283666081679E-2</v>
+        <v>-7.8832281212751668E-2</v>
       </c>
       <c r="AO3">
-        <v>9.9893336313216636</v>
+        <v>9.9893336457136925</v>
       </c>
       <c r="AP3">
-        <v>-6.9690893457027991</v>
+        <v>-6.9690893549819029</v>
       </c>
       <c r="AQ3">
-        <v>-3.0517692404831132</v>
+        <v>-3.0517692059663402</v>
       </c>
       <c r="AR3">
-        <v>-2.5044600772663519</v>
+        <v>-2.504460060402641</v>
       </c>
       <c r="AS3">
-        <v>-1.3451098911612001</v>
+        <v>-1.3451099018519546</v>
       </c>
       <c r="AT3">
-        <v>-6.083780536599753</v>
+        <v>-6.0837804791674044</v>
       </c>
       <c r="AU3">
-        <v>-1.8377450915250337</v>
+        <v>-1.8377450960174413</v>
       </c>
       <c r="AV3">
-        <v>-1.8396073975801355</v>
+        <v>-1.8396073472254291</v>
       </c>
       <c r="AW3">
-        <v>-4.6398318638563651</v>
+        <v>-4.6398318998645003</v>
       </c>
       <c r="AX3">
-        <v>-25.342831834234484</v>
+        <v>-25.342831859707282</v>
       </c>
       <c r="AY3">
-        <v>-13.259613311731647</v>
+        <v>-13.259613304116275</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-2.027709678008959</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-4.4839667993468568</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-8.1168583204219829</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.4483387461896866</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-14.864818207238917</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.6293870458924458</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.0145078255622737</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.156630439689966</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.0070818065649103</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-14.804957158200224</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.8441145942338935</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.986491617279313</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.19151930046109453</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.7781308245004244</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-1.4176620932764745</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-3.1482107499396483</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.89241209100717223</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.8044436631159737</v>
+        <v>5.8044993939610654</v>
       </c>
       <c r="T2">
-        <v>-5.6796527636998695</v>
+        <v>-5.6796312487197795</v>
       </c>
       <c r="U2">
-        <v>6.7523690875404094</v>
+        <v>6.7524028494628148</v>
       </c>
       <c r="V2">
-        <v>-7.1147045356777596</v>
+        <v>-7.1146835113527667</v>
       </c>
       <c r="W2">
-        <v>5.953108137050994</v>
+        <v>5.9531478731921723</v>
       </c>
       <c r="X2">
-        <v>-2.0722049137895922</v>
+        <v>-2.0722545944016497</v>
       </c>
       <c r="Y2">
-        <v>-2.188593991114526</v>
+        <v>-2.1886165172275449</v>
       </c>
       <c r="Z2">
-        <v>-20.999676658685594</v>
+        <v>-20.99972263663928</v>
       </c>
       <c r="AA2">
-        <v>7.8358146018041142</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-5.1463130064994758</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.1358831913570011</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-7.0827388155794697</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.807381911678892</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-2.6311456095102073</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.73944757127741034</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-2.965319835623224</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>53.90389356637553</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-4.2496079461796521</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-2.030945934204297</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-8.1521569912617728</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-4.377956790730337E-2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.18850371322241191</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-5.6861732620047603</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93098978667687615</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.4356196769483194</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.5490219933694277</v>
       </c>
       <c r="AS2">
-        <v>-4.4521997824188073</v>
+        <v>-4.4521770994858176</v>
       </c>
       <c r="AT2">
-        <v>-2.4859595777304508</v>
+        <v>-2.4859312334603816</v>
       </c>
       <c r="AU2">
         <v>-0.98953710587490629</v>
       </c>
       <c r="AV2">
-        <v>-4.2858088616763421</v>
+        <v>-4.2857912176699156</v>
       </c>
       <c r="AW2">
-        <v>-2.8776684796353131</v>
+        <v>-2.8777198429501256</v>
       </c>
       <c r="AX2">
-        <v>-4.9955989626916679</v>
+        <v>-4.9956393113656477</v>
       </c>
       <c r="AY2">
-        <v>0.95148915927305222</v>
+        <v>0.95146029578397684</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.9052278622843382</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.51071512467278191</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5844027562283497</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-11.493442252988849</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.8723185207638293</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.49805760935366883</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.262999970771074</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.92891162416651218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.7181692404707718</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.572189538676021</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.750211327703834</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-4.5801996501428892</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.3633912371617965</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.7472038679327975</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-18.607663134438322</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-3.4860665480440054</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.1270239776462505</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.4672087326693664</v>
       </c>
       <c r="T3">
-        <v>6.4569387024580527</v>
+        <v>6.4569648852874781</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536989036</v>
+        <v>-5.6226697050781498</v>
       </c>
       <c r="V3">
-        <v>5.5386459624482924</v>
+        <v>5.5386459624482729</v>
       </c>
       <c r="W3">
-        <v>0.79677316717642921</v>
+        <v>0.79677316717644087</v>
       </c>
       <c r="X3">
-        <v>8.4651248821622165</v>
+        <v>8.4651816466751288</v>
       </c>
       <c r="Y3">
-        <v>4.6158483705766393</v>
+        <v>30.622443090146039</v>
       </c>
       <c r="Z3">
-        <v>-5.0173141458916382</v>
+        <v>-0.96085767185243331</v>
       </c>
       <c r="AA3">
-        <v>-0.30452189407271935</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-4.6717266503520349</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.73487168271150305</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-9.2467821396893353</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-5.0577051535782722</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.59148028139708653</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.177787461230674</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.4331037864578882</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-2.4569889856515497</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.78786490726066249</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>34.707128347001358</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-2.1530409195327174</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.1375014385226299</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-7.8832281212751668E-2</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.9893336457136925</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.9690893549819029</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.0517692059663402</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-2.504460060402641</v>
+        <v>-2.5044090647756478</v>
       </c>
       <c r="AS3">
-        <v>-1.3451099018519546</v>
+        <v>-1.3451338867344276</v>
       </c>
       <c r="AT3">
-        <v>-6.0837804791674044</v>
+        <v>-6.0837492227342009</v>
       </c>
       <c r="AU3">
         <v>-1.8377450960174413</v>
       </c>
       <c r="AV3">
-        <v>-1.8396073472254291</v>
+        <v>-1.8396590666703727</v>
       </c>
       <c r="AW3">
-        <v>-4.6398318998645003</v>
+        <v>-4.6398083959618912</v>
       </c>
       <c r="AX3">
-        <v>-25.342831859707282</v>
+        <v>-23.174422592914336</v>
       </c>
       <c r="AY3">
-        <v>-13.259613304116275</v>
+        <v>20.620786125261919</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.0276497806680109</v>
+        <v>8.7780730494802288</v>
       </c>
       <c r="C2">
-        <v>-0.85978248040097949</v>
+        <v>-0.89239373006500067</v>
       </c>
       <c r="D2">
-        <v>-8.1168932019782449</v>
+        <v>-0.18850371322243292</v>
       </c>
       <c r="E2">
-        <v>-8.3397916631504909</v>
+        <v>-1.435601364730734</v>
       </c>
       <c r="F2">
         <v>-14.864795011933959</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="C3">
-        <v>0.67412158954272494</v>
+        <v>2.1270638141178488</v>
       </c>
       <c r="D3">
-        <v>-0.58432594194640375</v>
+        <v>-7.8832281212729755E-2</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036953</v>
+        <v>-3.2852058415379868</v>
       </c>
       <c r="F3">
         <v>5.872289264326243</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.0276497806680109</v>
+        <v>10.713211367020678</v>
       </c>
       <c r="C2">
-        <v>-0.85978248040097949</v>
+        <v>8.7780730494802288</v>
       </c>
       <c r="D2">
-        <v>-8.1168932019782449</v>
+        <v>8.5334404702590518</v>
       </c>
       <c r="E2">
-        <v>-8.3397916631504909</v>
+        <v>-0.18850371322243292</v>
       </c>
       <c r="F2">
         <v>-14.864795011933959</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>28.480680972077906</v>
       </c>
       <c r="C3">
-        <v>0.67412158954272494</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="D3">
-        <v>-0.58432594194640375</v>
+        <v>1.1386606172751521</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036953</v>
+        <v>-7.8832281212729755E-2</v>
       </c>
       <c r="F3">
         <v>5.872289264326243</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-2.0276497969043348</v>
+      </c>
+      <c r="C2">
+        <v>-0.85978245271316722</v>
+      </c>
+      <c r="D2">
+        <v>-8.11689291542646</v>
+      </c>
+      <c r="E2">
+        <v>-8.3397915412257113</v>
+      </c>
+      <c r="F2">
+        <v>-14.864795003109743</v>
+      </c>
+      <c r="G2">
+        <v>6.6294399702299316</v>
+      </c>
+      <c r="H2">
+        <v>-5.0145384392786125</v>
+      </c>
+      <c r="I2">
+        <v>5.156630439689966</v>
+      </c>
+      <c r="J2">
+        <v>4.0070818065649458</v>
+      </c>
+      <c r="K2">
+        <v>5.1259471779070056</v>
+      </c>
+      <c r="L2">
+        <v>7.844213474001144</v>
+      </c>
+      <c r="M2">
+        <v>-1.9865163669401478</v>
+      </c>
+      <c r="N2">
         <v>10.713211367020678</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.7780730494802288</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-1.4176620932764745</v>
+      </c>
+      <c r="Q2">
+        <v>-6.829729467426267</v>
+      </c>
+      <c r="R2">
+        <v>-0.89239373006500067</v>
+      </c>
+      <c r="S2">
+        <v>5.8044993939610654</v>
+      </c>
+      <c r="T2">
+        <v>-5.6796312487197795</v>
+      </c>
+      <c r="U2">
+        <v>6.7524028494628148</v>
+      </c>
+      <c r="V2">
+        <v>-7.1146835113527667</v>
+      </c>
+      <c r="W2">
+        <v>5.9531478731921723</v>
+      </c>
+      <c r="X2">
+        <v>-2.0722545944016497</v>
+      </c>
+      <c r="Y2">
+        <v>-2.1886165172275449</v>
+      </c>
+      <c r="Z2">
+        <v>-20.99972263663928</v>
+      </c>
+      <c r="AA2">
+        <v>7.8358146018041017</v>
+      </c>
+      <c r="AB2">
+        <v>12.796065593650518</v>
+      </c>
+      <c r="AC2">
+        <v>5.1358016956636865</v>
+      </c>
+      <c r="AD2">
+        <v>-2.1309062666256926</v>
+      </c>
+      <c r="AE2">
+        <v>-24.807381911678892</v>
+      </c>
+      <c r="AF2">
+        <v>-2.6311456095102073</v>
+      </c>
+      <c r="AG2">
+        <v>0.73948220165305834</v>
+      </c>
+      <c r="AH2">
+        <v>-2.965319835623224</v>
+      </c>
+      <c r="AI2">
+        <v>53.903968139210903</v>
+      </c>
+      <c r="AJ2">
+        <v>-2.5289719204784595</v>
+      </c>
+      <c r="AK2">
+        <v>-2.0309916903148597</v>
+      </c>
+      <c r="AL2">
+        <v>-8.1521805046670277</v>
+      </c>
+      <c r="AM2">
         <v>8.5334404702590518</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.18850371322243292</v>
       </c>
-      <c r="F2">
-        <v>-14.864795011933959</v>
-      </c>
-      <c r="G2">
-        <v>6.6294399703900453</v>
-      </c>
-      <c r="H2">
-        <v>-5.0145384093765903</v>
-      </c>
-      <c r="I2">
-        <v>5.1566304321040493</v>
-      </c>
-      <c r="J2">
-        <v>4.0070818275295839</v>
-      </c>
-      <c r="K2">
-        <v>5.1259472203862764</v>
-      </c>
-      <c r="L2">
-        <v>7.8442134362571245</v>
-      </c>
-      <c r="M2">
-        <v>-1.9865163770010801</v>
-      </c>
-      <c r="N2">
-        <v>10.713211350971291</v>
-      </c>
-      <c r="O2">
-        <v>8.7780730280334609</v>
-      </c>
-      <c r="P2">
-        <v>-1.4176621281315318</v>
-      </c>
-      <c r="Q2">
-        <v>-6.8297294740488184</v>
-      </c>
-      <c r="R2">
-        <v>-0.8923937532308055</v>
-      </c>
-      <c r="S2">
-        <v>5.8044993927249164</v>
-      </c>
-      <c r="T2">
-        <v>-5.6796312642628539</v>
-      </c>
-      <c r="U2">
-        <v>6.7524028773732274</v>
-      </c>
-      <c r="V2">
-        <v>-7.1146835046208059</v>
-      </c>
-      <c r="W2">
-        <v>5.953147847977581</v>
-      </c>
-      <c r="X2">
-        <v>-2.0722545911424577</v>
-      </c>
-      <c r="Y2">
-        <v>-2.1886165140508362</v>
-      </c>
-      <c r="Z2">
-        <v>-20.999722635187645</v>
-      </c>
-      <c r="AA2">
-        <v>7.8358146487743587</v>
-      </c>
-      <c r="AB2">
-        <v>12.796065584608119</v>
-      </c>
-      <c r="AC2">
-        <v>5.1358016831317714</v>
-      </c>
-      <c r="AD2">
-        <v>-2.1309062557551615</v>
-      </c>
-      <c r="AE2">
-        <v>-24.807381931494348</v>
-      </c>
-      <c r="AF2">
-        <v>-2.6311456279220198</v>
-      </c>
-      <c r="AG2">
-        <v>0.73948210344671095</v>
-      </c>
-      <c r="AH2">
-        <v>-2.9653198344018707</v>
-      </c>
-      <c r="AI2">
-        <v>53.903968190098119</v>
-      </c>
-      <c r="AJ2">
-        <v>-2.5289719458809445</v>
-      </c>
-      <c r="AK2">
-        <v>-2.0309916393581426</v>
-      </c>
-      <c r="AL2">
-        <v>-8.1521805577912545</v>
-      </c>
-      <c r="AM2">
-        <v>8.5334404629807743</v>
-      </c>
-      <c r="AN2">
-        <v>-0.18850373771385123</v>
-      </c>
       <c r="AO2">
-        <v>-5.6861914473814688</v>
+        <v>-5.6861914068867749</v>
       </c>
       <c r="AP2">
-        <v>0.67627802166162088</v>
+        <v>0.67627804904283306</v>
       </c>
       <c r="AQ2">
-        <v>-1.4356013893424906</v>
+        <v>-1.435601364730734</v>
       </c>
       <c r="AR2">
-        <v>0.54902199018453146</v>
+        <v>0.5490219933694277</v>
       </c>
       <c r="AS2">
-        <v>-4.4521771431041772</v>
+        <v>-4.4521770994858176</v>
       </c>
       <c r="AT2">
-        <v>-2.485931258224312</v>
+        <v>-2.4859312334603816</v>
       </c>
       <c r="AU2">
-        <v>-0.98953712362582402</v>
+        <v>-0.98953710587490629</v>
       </c>
       <c r="AV2">
-        <v>-4.2857912362037549</v>
+        <v>-4.2857912176699156</v>
       </c>
       <c r="AW2">
-        <v>-2.8777198700485349</v>
+        <v>-2.8777198429501256</v>
       </c>
       <c r="AX2">
-        <v>-4.995639385431196</v>
+        <v>-4.9956393113656477</v>
       </c>
       <c r="AY2">
-        <v>0.95146027484013851</v>
+        <v>0.95146029578397684</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.9052278622843382</v>
+      </c>
+      <c r="C3">
+        <v>0.6741216016978383</v>
+      </c>
+      <c r="D3">
+        <v>-0.58432589717576711</v>
+      </c>
+      <c r="E3">
+        <v>-11.493442252988835</v>
+      </c>
+      <c r="F3">
+        <v>5.8722892229664376</v>
+      </c>
+      <c r="G3">
+        <v>0.49805760935366883</v>
+      </c>
+      <c r="H3">
+        <v>2.262925847702109</v>
+      </c>
+      <c r="I3">
+        <v>0.92886124159055949</v>
+      </c>
+      <c r="J3">
+        <v>13.13505126568209</v>
+      </c>
+      <c r="K3">
+        <v>34.572189538676021</v>
+      </c>
+      <c r="L3">
+        <v>29.750159993380116</v>
+      </c>
+      <c r="M3">
+        <v>-4.5801773157580969</v>
+      </c>
+      <c r="N3">
         <v>28.480680972077906</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.7472038679327975</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-18.607648048763661</v>
+      </c>
+      <c r="Q3">
+        <v>-3.486108678613308</v>
+      </c>
+      <c r="R3">
+        <v>2.1270638141178488</v>
+      </c>
+      <c r="S3">
+        <v>6.4672087326693664</v>
+      </c>
+      <c r="T3">
+        <v>6.4569648852874781</v>
+      </c>
+      <c r="U3">
+        <v>-5.6226697050781498</v>
+      </c>
+      <c r="V3">
+        <v>5.5386459624482729</v>
+      </c>
+      <c r="W3">
+        <v>0.93962382319162563</v>
+      </c>
+      <c r="X3">
+        <v>8.4651816466751288</v>
+      </c>
+      <c r="Y3">
+        <v>30.622443090146039</v>
+      </c>
+      <c r="Z3">
+        <v>-0.96085767185243331</v>
+      </c>
+      <c r="AA3">
+        <v>-0.30452189407271935</v>
+      </c>
+      <c r="AB3">
+        <v>-1.8685591236654135</v>
+      </c>
+      <c r="AC3">
+        <v>-0.73487168271150305</v>
+      </c>
+      <c r="AD3">
+        <v>-9.2468004792492717</v>
+      </c>
+      <c r="AE3">
+        <v>-5.0577051535782918</v>
+      </c>
+      <c r="AF3">
+        <v>-0.59145458638651682</v>
+      </c>
+      <c r="AG3">
+        <v>11.177787461230674</v>
+      </c>
+      <c r="AH3">
+        <v>5.4443442402989612</v>
+      </c>
+      <c r="AI3">
+        <v>-0.7676938538278375</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.78783424860445228</v>
+      </c>
+      <c r="AK3">
+        <v>34.707128347001422</v>
+      </c>
+      <c r="AL3">
+        <v>-2.1530409195327174</v>
+      </c>
+      <c r="AM3">
         <v>1.1386606172751521</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-7.8832281212729755E-2</v>
       </c>
-      <c r="F3">
-        <v>5.872289264326243</v>
-      </c>
-      <c r="G3">
-        <v>0.4980576290326344</v>
-      </c>
-      <c r="H3">
-        <v>2.2629258050317023</v>
-      </c>
-      <c r="I3">
-        <v>0.92886126478264885</v>
-      </c>
-      <c r="J3">
-        <v>13.135051258033512</v>
-      </c>
-      <c r="K3">
-        <v>34.572189535783984</v>
-      </c>
-      <c r="L3">
-        <v>29.750159995702191</v>
-      </c>
-      <c r="M3">
-        <v>-4.5802444507472142</v>
-      </c>
-      <c r="N3">
-        <v>28.480680974000233</v>
-      </c>
-      <c r="O3">
-        <v>2.7472038654160555</v>
-      </c>
-      <c r="P3">
-        <v>-18.60764807369663</v>
-      </c>
-      <c r="Q3">
-        <v>-3.486108705842704</v>
-      </c>
-      <c r="R3">
-        <v>2.127063806960471</v>
-      </c>
-      <c r="S3">
-        <v>6.467208730090988</v>
-      </c>
-      <c r="T3">
-        <v>6.4569648957379142</v>
-      </c>
-      <c r="U3">
-        <v>-5.6226697050527212</v>
-      </c>
-      <c r="V3">
-        <v>5.5386459589203243</v>
-      </c>
-      <c r="W3">
-        <v>0.93962369653652045</v>
-      </c>
-      <c r="X3">
-        <v>8.4651816719794937</v>
-      </c>
-      <c r="Y3">
-        <v>30.622443060871134</v>
-      </c>
-      <c r="Z3">
-        <v>-0.96085769472378879</v>
-      </c>
-      <c r="AA3">
-        <v>-0.30452189699468996</v>
-      </c>
-      <c r="AB3">
-        <v>-1.8685590949572186</v>
-      </c>
-      <c r="AC3">
-        <v>-0.73487167356443261</v>
-      </c>
-      <c r="AD3">
-        <v>-9.2468004319526642</v>
-      </c>
-      <c r="AE3">
-        <v>-5.0577051111929014</v>
-      </c>
-      <c r="AF3">
-        <v>-0.5914545915167515</v>
-      </c>
-      <c r="AG3">
-        <v>11.177787742414704</v>
-      </c>
-      <c r="AH3">
-        <v>5.4443442079222235</v>
-      </c>
-      <c r="AI3">
-        <v>-0.76769381418383897</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.78783426452936256</v>
-      </c>
-      <c r="AK3">
-        <v>34.707128302457619</v>
-      </c>
-      <c r="AL3">
-        <v>-2.1530409527979093</v>
-      </c>
-      <c r="AM3">
-        <v>1.1386605813825321</v>
-      </c>
-      <c r="AN3">
-        <v>-7.8832283666059766E-2</v>
-      </c>
       <c r="AO3">
-        <v>9.9893546472270778</v>
+        <v>9.989354661619112</v>
       </c>
       <c r="AP3">
-        <v>-6.9691289420027029</v>
+        <v>-6.9691289512818031</v>
       </c>
       <c r="AQ3">
-        <v>-3.285205907933598</v>
+        <v>-3.2852058415379868</v>
       </c>
       <c r="AR3">
-        <v>-2.504409081639368</v>
+        <v>-2.5044090647756478</v>
       </c>
       <c r="AS3">
-        <v>-1.3451338760436757</v>
+        <v>-1.3451338867344276</v>
       </c>
       <c r="AT3">
-        <v>-6.0837492801665682</v>
+        <v>-6.0837492227342009</v>
       </c>
       <c r="AU3">
-        <v>-1.8377450915250337</v>
+        <v>-1.8377450960174413</v>
       </c>
       <c r="AV3">
-        <v>-1.8396591170250529</v>
+        <v>-1.8396590666703727</v>
       </c>
       <c r="AW3">
-        <v>-4.6398083599537472</v>
+        <v>-4.6398083959618912</v>
       </c>
       <c r="AX3">
-        <v>-23.174422566701683</v>
+        <v>-23.174422592914336</v>
       </c>
       <c r="AY3">
-        <v>20.620786114672015</v>
+        <v>20.620786125261919</v>
       </c>
     </row>
   </sheetData>
